--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hanamanta_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HanamantaRaghapur\CodeRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B33918-A061-4EC3-AF93-7921745E7D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0360BB9-DC13-4D7E-8C0B-AA69890DB33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>first_name</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>Last4</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Mid5</t>
+  </si>
+  <si>
+    <t>Last5</t>
   </si>
 </sst>
 </file>
@@ -108,11 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,6 +487,20 @@
         <v>1988</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43871</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
